--- a/WinformsUI/Template/template_2.xlsx
+++ b/WinformsUI/Template/template_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\SalaryAudit\WinformsUI\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0439E12B-5ADB-48F0-A944-D5ADEF6B4156}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC621604-FDD2-4709-8ECB-3DEB50FB93CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{8DFAB6B4-22C1-448E-8945-6FE6DF41C07B}"/>
   </bookViews>
@@ -36,38 +36,14 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
-    <t>上月应发累计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$[TotalPayableOfLast]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本月应发累计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$[TotalPayableOfCurrent]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上月实发累计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[TotalActualOfLast]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本月实发累计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[TotalActualOfCurrent]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工资状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,6 +376,30 @@
   </si>
   <si>
     <t>工资明细表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、上月应发工资累计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、本月应发工资累计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、上月应发工资调节后余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、本月应发工资调节后余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[LastBalanced]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[CurrentBalanced]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,12 +457,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -471,7 +486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -485,13 +500,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -807,7 +837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F50E0267-16BA-415F-B962-00EA1D567FE7}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -823,127 +853,150 @@
   <sheetData>
     <row r="1" spans="1:10" ht="18.3" x14ac:dyDescent="0.5">
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18.3" x14ac:dyDescent="0.5">
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:10" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
       <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="3" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="I6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="3" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
-      <c r="D8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>32</v>
+      <c r="B8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -955,7 +1008,7 @@
   <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -967,221 +1020,221 @@
   <sheetData>
     <row r="1" spans="1:33" ht="18.3" x14ac:dyDescent="0.5">
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="18.3" x14ac:dyDescent="0.5">
       <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="4" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" s="5" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
-      <c r="B5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="U5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="V5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="W5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="X5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="Y5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="Z5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="AA5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="AB5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="AC5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="AD5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="AE5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="AF5" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF5" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="3" customFormat="1" ht="12.9" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG6" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R6" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="V6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA6" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE6" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.5">
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
